--- a/biology/Botanique/Strychnos_spinosa/Strychnos_spinosa.xlsx
+++ b/biology/Botanique/Strychnos_spinosa/Strychnos_spinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Oranger du Natal (Strychnos spinosa) est un petit arbre épineux de la famille des Loganiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre aux feuilles opposées, ovales, pointues à leur extrémité, aux fleurs blanches en corymbe. Il produit des fruits verts puis jaune-orangé à maturité connus sous le nom d'oranges de singe (en anglais monkey orange) ou d'oranges du Natal (Natal orange). Ces fruits ont une coque (exocarpe) très dure, ils contiennent au milieu d'une pulpe comestible de nombreuses graines plates brun foncé qui renferment de la strychnine et d'autres alcaloïdes.
 			Arbuste
@@ -545,9 +559,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Afrique de l'est différentes ressources sont tirées de cette plante :
 les jeunes feuilles sont bouillies et consommées avec du beurre de karité chez les Gourounsi du centre ouest du Burkina Faso.
